--- a/варианты 2025/байт/байт2/22.xlsx
+++ b/варианты 2025/байт/байт2/22.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jjhgb\PycharmProjects\isakovich2023\варианты 2025\байт\байт2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB010F61-9B4F-4932-80A2-7586495B7B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2852AC09-F076-4D4F-B4C9-A69E37F581CE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -156,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,7 +202,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -402,18 +396,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2DB3BB-49D2-E548-94D4-3479817A1540}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="X16" sqref="X16:Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="AV3" t="b">
-        <f t="shared" ref="AV3:AV16" si="0">SUM(H3:AU3)=B3</f>
+        <f t="shared" ref="AV3:AV15" si="0">SUM(H3:AU3)=B3</f>
         <v>1</v>
       </c>
     </row>
@@ -1058,10 +1052,10 @@
       <c r="G16">
         <v>15</v>
       </c>
-      <c r="Z16">
-        <v>1</v>
-      </c>
-      <c r="AA16">
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
         <v>1</v>
       </c>
       <c r="AV16" t="b">
@@ -1138,20 +1132,20 @@
         <v>4</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>COUNT(X2:X16)</f>
+        <v>5</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>COUNT(Y2:Y16)</f>
+        <v>5</v>
       </c>
       <c r="Z17">
         <f>COUNT(Z2:Z16)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA17">
         <f>COUNT(AA2:AA16)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB17">
         <f>COUNT(AB2:AB16)</f>
@@ -1247,7 +1241,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:AU5 H6:P6 T6:AA6 AE6:AU6 H7:AU7 H9:AU12 H15:AU15 H13:P14 S13:AU14 J16:R16 V16:AU16 H8:K8 U8:AU8">
+  <conditionalFormatting sqref="H2:AU5 H6:P6 T6:AA6 AE6:AU6 H7:AU7 H9:AU12 H13:P14 S13:AU14 J16:R16 AB16:AU16 H8:K8 U8:AU8 H15:W15 Z15:AU15 V16:Y16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
